--- a/Projects/MOLSONCOORSCA/Data/Adjacencies Brands v1.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/Adjacencies Brands v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Granular Groups" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,9 +16,11 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups'!$A$2:$F$152</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Granular Groups'!$A$2:$F$152</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups'!$A$2:$F$152</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$EM$59</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -241,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,6 +285,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -352,7 +359,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +373,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,7 +422,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -510,20 +521,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4B183"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -603,21 +600,21 @@
   </sheetPr>
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +626,7 @@
       <c r="F1" s="2"/>
       <c r="H1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -642,7 +639,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -651,7 +648,7 @@
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -663,16 +660,16 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="E3" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -684,16 +681,16 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="E4" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -705,16 +702,16 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="E5" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -726,16 +723,16 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="E6" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -747,16 +744,16 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="E7" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -768,16 +765,16 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="E8" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F8" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -789,16 +786,16 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="E9" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -810,16 +807,16 @@
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F10" s="5" t="n">
+      <c r="E10" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F10" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -831,16 +828,16 @@
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="E11" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F11" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -852,16 +849,16 @@
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F12" s="5" t="n">
+      <c r="E12" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F12" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -873,16 +870,16 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F13" s="5" t="n">
+      <c r="E13" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F13" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -894,16 +891,16 @@
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F14" s="5" t="n">
+      <c r="E14" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F14" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -915,16 +912,16 @@
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F15" s="5" t="n">
+      <c r="E15" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F15" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -936,16 +933,16 @@
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F16" s="5" t="n">
+      <c r="E16" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F16" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -957,16 +954,16 @@
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F17" s="5" t="n">
+      <c r="E17" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F17" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -978,16 +975,16 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F18" s="5" t="n">
+      <c r="E18" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F18" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -999,16 +996,16 @@
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F19" s="5" t="n">
+      <c r="E19" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F19" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1020,16 +1017,16 @@
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F20" s="5" t="n">
+      <c r="E20" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F20" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1041,16 +1038,16 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F21" s="5" t="n">
+      <c r="E21" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F21" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1062,16 +1059,16 @@
       <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F22" s="5" t="n">
+      <c r="E22" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F22" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1083,16 +1080,16 @@
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F23" s="5" t="n">
+      <c r="E23" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F23" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1104,16 +1101,16 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F24" s="5" t="n">
+      <c r="E24" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F24" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1125,16 +1122,16 @@
       <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F25" s="5" t="n">
+      <c r="E25" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F25" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1146,16 +1143,16 @@
       <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F26" s="5" t="n">
+      <c r="E26" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F26" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1167,16 +1164,16 @@
       <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F27" s="5" t="n">
+      <c r="E27" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F27" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1188,16 +1185,16 @@
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F28" s="5" t="n">
+      <c r="E28" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F28" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1209,16 +1206,16 @@
       <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F29" s="5" t="n">
+      <c r="E29" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F29" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1230,16 +1227,16 @@
       <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F30" s="5" t="n">
+      <c r="E30" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F30" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1251,16 +1248,16 @@
       <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F31" s="5" t="n">
+      <c r="E31" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F31" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1272,16 +1269,16 @@
       <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F32" s="5" t="n">
+      <c r="E32" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F32" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1293,16 +1290,16 @@
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F33" s="5" t="n">
+      <c r="E33" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F33" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1314,16 +1311,16 @@
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F34" s="5" t="n">
+      <c r="E34" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F34" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1335,16 +1332,16 @@
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F35" s="5" t="n">
+      <c r="E35" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F35" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1356,16 +1353,16 @@
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F36" s="5" t="n">
+      <c r="E36" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F36" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1377,16 +1374,16 @@
       <c r="D37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F37" s="5" t="n">
+      <c r="E37" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F37" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1398,16 +1395,16 @@
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F38" s="5" t="n">
+      <c r="E38" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F38" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1419,16 +1416,16 @@
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F39" s="5" t="n">
+      <c r="E39" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F39" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1440,16 +1437,16 @@
       <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F40" s="5" t="n">
+      <c r="E40" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F40" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1461,16 +1458,16 @@
       <c r="D41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F41" s="5" t="n">
+      <c r="E41" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F41" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1482,16 +1479,16 @@
       <c r="D42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F42" s="5" t="n">
+      <c r="E42" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F42" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1503,16 +1500,16 @@
       <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F43" s="5" t="n">
+      <c r="E43" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F43" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1524,16 +1521,16 @@
       <c r="D44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F44" s="5" t="n">
+      <c r="E44" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F44" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1545,16 +1542,16 @@
       <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F45" s="5" t="n">
+      <c r="E45" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F45" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1566,16 +1563,16 @@
       <c r="D46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F46" s="5" t="n">
+      <c r="E46" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F46" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1587,16 +1584,16 @@
       <c r="D47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F47" s="5" t="n">
+      <c r="E47" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F47" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1608,16 +1605,16 @@
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F48" s="5" t="n">
+      <c r="E48" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F48" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1629,16 +1626,16 @@
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F49" s="5" t="n">
+      <c r="E49" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F49" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1650,16 +1647,16 @@
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F50" s="5" t="n">
+      <c r="E50" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F50" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1671,16 +1668,16 @@
       <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F51" s="5" t="n">
+      <c r="E51" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F51" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1692,16 +1689,16 @@
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F52" s="5" t="n">
+      <c r="E52" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F52" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1713,16 +1710,16 @@
       <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F53" s="5" t="n">
+      <c r="E53" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F53" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1734,16 +1731,16 @@
       <c r="D54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F54" s="5" t="n">
+      <c r="E54" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F54" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1755,16 +1752,16 @@
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F55" s="5" t="n">
+      <c r="E55" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F55" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1776,16 +1773,16 @@
       <c r="D56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F56" s="5" t="n">
+      <c r="E56" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F56" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1797,16 +1794,16 @@
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F57" s="5" t="n">
+      <c r="E57" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F57" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1818,16 +1815,16 @@
       <c r="D58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F58" s="5" t="n">
+      <c r="E58" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F58" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1839,16 +1836,16 @@
       <c r="D59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F59" s="5" t="n">
+      <c r="E59" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F59" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1860,16 +1857,16 @@
       <c r="D60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F60" s="5" t="n">
+      <c r="E60" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F60" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1881,16 +1878,16 @@
       <c r="D61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F61" s="5" t="n">
+      <c r="E61" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F61" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1902,16 +1899,16 @@
       <c r="D62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F62" s="5" t="n">
+      <c r="E62" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F62" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1923,16 +1920,16 @@
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F63" s="5" t="n">
+      <c r="E63" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F63" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1944,16 +1941,16 @@
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F64" s="5" t="n">
+      <c r="E64" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F64" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1965,16 +1962,16 @@
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F65" s="5" t="n">
+      <c r="E65" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F65" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1986,16 +1983,16 @@
       <c r="D66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F66" s="5" t="n">
+      <c r="E66" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F66" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2007,16 +2004,16 @@
       <c r="D67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F67" s="5" t="n">
+      <c r="E67" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F67" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2028,16 +2025,16 @@
       <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F68" s="5" t="n">
+      <c r="E68" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F68" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2049,16 +2046,16 @@
       <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F69" s="5" t="n">
+      <c r="E69" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F69" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2070,16 +2067,16 @@
       <c r="D70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F70" s="5" t="n">
+      <c r="E70" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F70" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2091,16 +2088,16 @@
       <c r="D71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F71" s="5" t="n">
+      <c r="E71" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F71" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2112,16 +2109,16 @@
       <c r="D72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F72" s="5" t="n">
+      <c r="E72" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F72" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2133,16 +2130,16 @@
       <c r="D73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F73" s="5" t="n">
+      <c r="E73" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F73" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2154,16 +2151,16 @@
       <c r="D74" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F74" s="5" t="n">
+      <c r="E74" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F74" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2175,16 +2172,16 @@
       <c r="D75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F75" s="5" t="n">
+      <c r="E75" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F75" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2196,16 +2193,16 @@
       <c r="D76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F76" s="5" t="n">
+      <c r="E76" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F76" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2217,16 +2214,16 @@
       <c r="D77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F77" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H77" s="4"/>
+      <c r="E77" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2238,16 +2235,16 @@
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F78" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H78" s="6"/>
+      <c r="E78" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2259,16 +2256,16 @@
       <c r="D79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F79" s="5" t="n">
+      <c r="E79" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F79" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2280,16 +2277,16 @@
       <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F80" s="5" t="n">
+      <c r="E80" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F80" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2301,16 +2298,16 @@
       <c r="D81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F81" s="5" t="n">
+      <c r="E81" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F81" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2322,16 +2319,16 @@
       <c r="D82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F82" s="5" t="n">
+      <c r="E82" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F82" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2343,16 +2340,16 @@
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F83" s="5" t="n">
+      <c r="E83" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F83" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2364,16 +2361,16 @@
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F84" s="5" t="n">
+      <c r="E84" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F84" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2385,16 +2382,16 @@
       <c r="D85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F85" s="5" t="n">
+      <c r="E85" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F85" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2406,16 +2403,16 @@
       <c r="D86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F86" s="5" t="n">
+      <c r="E86" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F86" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2427,16 +2424,16 @@
       <c r="D87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E87" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F87" s="5" t="n">
+      <c r="E87" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F87" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2448,16 +2445,16 @@
       <c r="D88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F88" s="5" t="n">
+      <c r="E88" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F88" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2469,16 +2466,16 @@
       <c r="D89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F89" s="5" t="n">
+      <c r="E89" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F89" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2490,16 +2487,16 @@
       <c r="D90" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F90" s="5" t="n">
+      <c r="E90" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F90" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -2511,16 +2508,16 @@
       <c r="D91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F91" s="5" t="n">
+      <c r="E91" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F91" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2532,16 +2529,16 @@
       <c r="D92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E92" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F92" s="5" t="n">
+      <c r="E92" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F92" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2553,16 +2550,16 @@
       <c r="D93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F93" s="5" t="n">
+      <c r="E93" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F93" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -2574,16 +2571,16 @@
       <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F94" s="5" t="n">
+      <c r="E94" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F94" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -2595,16 +2592,16 @@
       <c r="D95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F95" s="5" t="n">
+      <c r="E95" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F95" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -2616,16 +2613,16 @@
       <c r="D96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F96" s="5" t="n">
+      <c r="E96" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F96" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2637,16 +2634,16 @@
       <c r="D97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F97" s="5" t="n">
+      <c r="E97" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F97" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2658,16 +2655,16 @@
       <c r="D98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F98" s="5" t="n">
+      <c r="E98" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F98" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -2679,16 +2676,16 @@
       <c r="D99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F99" s="5" t="n">
+      <c r="E99" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F99" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -2700,16 +2697,16 @@
       <c r="D100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F100" s="5" t="n">
+      <c r="E100" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F100" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -2721,16 +2718,16 @@
       <c r="D101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F101" s="5" t="n">
+      <c r="E101" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F101" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -2742,16 +2739,16 @@
       <c r="D102" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E102" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F102" s="5" t="n">
+      <c r="E102" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F102" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -2763,16 +2760,16 @@
       <c r="D103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E103" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F103" s="5" t="n">
+      <c r="E103" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F103" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -2784,16 +2781,16 @@
       <c r="D104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F104" s="5" t="n">
+      <c r="E104" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F104" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -2805,16 +2802,16 @@
       <c r="D105" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F105" s="5" t="n">
+      <c r="E105" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F105" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -2826,16 +2823,16 @@
       <c r="D106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E106" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F106" s="5" t="n">
+      <c r="E106" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F106" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -2847,16 +2844,16 @@
       <c r="D107" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E107" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F107" s="5" t="n">
+      <c r="E107" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F107" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -2868,16 +2865,16 @@
       <c r="D108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F108" s="5" t="n">
+      <c r="E108" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F108" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -2889,16 +2886,16 @@
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F109" s="5" t="n">
+      <c r="E109" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F109" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -2910,16 +2907,16 @@
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F110" s="5" t="n">
+      <c r="E110" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F110" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -2931,16 +2928,16 @@
       <c r="D111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F111" s="5" t="n">
+      <c r="E111" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F111" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -2952,16 +2949,16 @@
       <c r="D112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F112" s="5" t="n">
+      <c r="E112" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F112" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -2973,16 +2970,16 @@
       <c r="D113" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F113" s="5" t="n">
+      <c r="E113" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F113" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -2994,16 +2991,16 @@
       <c r="D114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F114" s="5" t="n">
+      <c r="E114" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F114" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3015,16 +3012,16 @@
       <c r="D115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F115" s="5" t="n">
+      <c r="E115" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F115" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3036,16 +3033,16 @@
       <c r="D116" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F116" s="5" t="n">
+      <c r="E116" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F116" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3057,16 +3054,16 @@
       <c r="D117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F117" s="5" t="n">
+      <c r="E117" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F117" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3078,16 +3075,16 @@
       <c r="D118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E118" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F118" s="5" t="n">
+      <c r="E118" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F118" s="6" t="n">
         <v>43830</v>
       </c>
       <c r="H118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3099,16 +3096,16 @@
       <c r="D119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F119" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H119" s="4"/>
+      <c r="E119" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3120,16 +3117,16 @@
       <c r="D120" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F120" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H120" s="4"/>
+      <c r="E120" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3141,16 +3138,16 @@
       <c r="D121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E121" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F121" s="5" t="n">
-        <v>43830</v>
-      </c>
-      <c r="H121" s="6"/>
+      <c r="E121" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>43830</v>
+      </c>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3162,15 +3159,15 @@
       <c r="D122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E122" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F122" s="5" t="n">
+      <c r="E122" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F122" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3182,15 +3179,15 @@
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F123" s="5" t="n">
+      <c r="E123" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F123" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3202,15 +3199,15 @@
       <c r="D124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F124" s="5" t="n">
+      <c r="E124" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F124" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -3222,15 +3219,15 @@
       <c r="D125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F125" s="5" t="n">
+      <c r="E125" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F125" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -3242,15 +3239,15 @@
       <c r="D126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F126" s="5" t="n">
+      <c r="E126" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F126" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -3262,15 +3259,15 @@
       <c r="D127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E127" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F127" s="5" t="n">
+      <c r="E127" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F127" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -3282,15 +3279,15 @@
       <c r="D128" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F128" s="5" t="n">
+      <c r="E128" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F128" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -3302,15 +3299,15 @@
       <c r="D129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E129" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F129" s="5" t="n">
+      <c r="E129" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F129" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -3322,15 +3319,15 @@
       <c r="D130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F130" s="5" t="n">
+      <c r="E130" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F130" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -3342,15 +3339,15 @@
       <c r="D131" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F131" s="5" t="n">
+      <c r="E131" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F131" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -3362,15 +3359,15 @@
       <c r="D132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E132" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F132" s="5" t="n">
+      <c r="E132" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F132" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -3382,15 +3379,15 @@
       <c r="D133" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F133" s="5" t="n">
+      <c r="E133" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F133" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -3402,15 +3399,15 @@
       <c r="D134" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E134" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F134" s="5" t="n">
+      <c r="E134" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F134" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -3422,15 +3419,15 @@
       <c r="D135" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E135" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F135" s="5" t="n">
+      <c r="E135" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F135" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -3442,15 +3439,15 @@
       <c r="D136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E136" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F136" s="5" t="n">
+      <c r="E136" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F136" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -3462,15 +3459,15 @@
       <c r="D137" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E137" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F137" s="5" t="n">
+      <c r="E137" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F137" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -3482,15 +3479,15 @@
       <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F138" s="5" t="n">
+      <c r="E138" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F138" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -3502,15 +3499,15 @@
       <c r="D139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F139" s="5" t="n">
+      <c r="E139" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F139" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -3522,15 +3519,15 @@
       <c r="D140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F140" s="5" t="n">
+      <c r="E140" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F140" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -3542,15 +3539,15 @@
       <c r="D141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F141" s="5" t="n">
+      <c r="E141" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F141" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -3562,15 +3559,15 @@
       <c r="D142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F142" s="5" t="n">
+      <c r="E142" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F142" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -3582,15 +3579,15 @@
       <c r="D143" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F143" s="5" t="n">
+      <c r="E143" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F143" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -3602,15 +3599,15 @@
       <c r="D144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E144" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F144" s="5" t="n">
+      <c r="E144" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F144" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -3622,15 +3619,15 @@
       <c r="D145" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F145" s="5" t="n">
+      <c r="E145" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F145" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -3642,15 +3639,15 @@
       <c r="D146" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F146" s="5" t="n">
+      <c r="E146" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F146" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -3662,15 +3659,15 @@
       <c r="D147" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E147" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F147" s="5" t="n">
+      <c r="E147" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F147" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -3682,15 +3679,15 @@
       <c r="D148" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E148" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F148" s="5" t="n">
+      <c r="E148" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F148" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -3702,15 +3699,15 @@
       <c r="D149" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F149" s="5" t="n">
+      <c r="E149" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F149" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -3722,15 +3719,15 @@
       <c r="D150" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E150" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F150" s="5" t="n">
+      <c r="E150" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F150" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -3742,15 +3739,15 @@
       <c r="D151" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E151" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F151" s="5" t="n">
+      <c r="E151" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F151" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -3762,10 +3759,10 @@
       <c r="D152" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E152" s="5" t="n">
-        <v>43692</v>
-      </c>
-      <c r="F152" s="5" t="n">
+      <c r="E152" s="6" t="n">
+        <v>43692</v>
+      </c>
+      <c r="F152" s="6" t="n">
         <v>43830</v>
       </c>
     </row>
@@ -3795,7 +3792,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
@@ -3803,13 +3800,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="7" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="8" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="8" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3822,175 +3819,175 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>
